--- a/spliced/falling/2023-03-21_15-37-37/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8518548965454079</v>
+        <v>1.809551620483398</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.11153244972229</v>
+        <v>-2.747114396095276</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.974024677276608</v>
+        <v>-2.346350741386413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5047274231910706</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="G2" t="n">
-        <v>1.391398310661316</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="H2" t="n">
-        <v>1.06214189529419</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.7313633918762299</v>
+        <v>1.535980415344238</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.766938614845273</v>
+        <v>-2.904552030563355</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.49925755262375</v>
+        <v>-2.271616220474243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4867068827152252</v>
+        <v>0.0503963828086853</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.290605545043945</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.322844505310054</v>
+        <v>1.500288486480713</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.311514568328858</v>
+        <v>-2.749492883682251</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.98325538635254</v>
+        <v>-1.919559156894683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8316930532455444</v>
+        <v>0.0665843114256858</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.329548239707947</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3587306141853332</v>
+        <v>-0.0583376325666904</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3075991153717006</v>
+        <v>1.063152790069579</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.543269753456111</v>
+        <v>-2.663525581359863</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.584808015823368</v>
+        <v>-1.874630331993103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7304421067237854</v>
+        <v>0.0452040284872055</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.097558498382568</v>
+        <v>0.1351539343595504</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8232936263084412</v>
+        <v>-0.1539380401372909</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.671347141265869</v>
+        <v>1.008758783340455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0999624729156494</v>
+        <v>-2.917640089988708</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.535521984100342</v>
+        <v>-2.169865667819977</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2547308206558227</v>
+        <v>0.2449569702148437</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.4401284158229828</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3918700516223907</v>
+        <v>-0.2344195395708084</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.258466720581057</v>
+        <v>0.8518548965454079</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.150174045562746</v>
+        <v>-3.11153244972229</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.508739709854125</v>
+        <v>-1.974024677276608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5294674634933472</v>
+        <v>1.391398310661316</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3912591934204101</v>
+        <v>1.06214189529419</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.284438991546638</v>
+        <v>-0.7313633918762299</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.87428689002991</v>
+        <v>-2.766938614845273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2990560531616238</v>
+        <v>-1.49925755262375</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.268614411354065</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.000597238540649</v>
+        <v>-0.4867068827152252</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.631621122360229</v>
+        <v>-1.290605545043945</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.352084398269707</v>
+        <v>-2.322844505310054</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.846620321273795</v>
+        <v>-2.311514568328858</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.800319671630887</v>
+        <v>-1.98325538635254</v>
       </c>
       <c r="F9" t="n">
-        <v>1.631926536560059</v>
+        <v>0.8316930532455444</v>
       </c>
       <c r="G9" t="n">
-        <v>8.462469100952148</v>
+        <v>-1.329548239707947</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6192646622657776</v>
+        <v>0.3587306141853332</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.565014839172318</v>
+        <v>0.3075991153717006</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.19008378982544</v>
+        <v>-2.543269753456111</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.534866142272937</v>
+        <v>-2.584808015823368</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.297935962677002</v>
+        <v>0.7304421067237854</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3597996234893799</v>
+        <v>-2.097558498382568</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7938193678855896</v>
+        <v>-0.8232936263084412</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.5449800491333003</v>
+        <v>-1.671347141265869</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.96973985433578</v>
+        <v>0.0999624729156494</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.820678830146782</v>
+        <v>-4.535521984100342</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.845132052898407</v>
+        <v>0.2547308206558227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3094032406806946</v>
+        <v>-0.4392121136188507</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9367618560791016</v>
+        <v>-0.3918700516223907</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4441701889038138</v>
+        <v>2.258466720581057</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.205912351608273</v>
+        <v>-3.150174045562746</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.574502897262589</v>
+        <v>-2.508739709854125</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.232115149497986</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.111024759709835</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.7185302376747131</v>
+        <v>0.3912591934204101</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6093713760375863</v>
+        <v>-4.284438991546638</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.489246553182612</v>
+        <v>-5.87428689002991</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.765595197677606</v>
+        <v>0.2990560531616238</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2264782935380935</v>
+        <v>-1.268614411354065</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9043859839439392</v>
+        <v>-1.000597238540649</v>
       </c>
       <c r="H13" t="n">
-        <v>1.454012036323547</v>
+        <v>-1.631621122360229</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.423646736145025</v>
+        <v>3.352084398269707</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.778019905090329</v>
+        <v>-4.846620321273795</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.443504238128652</v>
+        <v>-3.800319671630887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5639813542366028</v>
+        <v>1.631926536560059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6252205967903137</v>
+        <v>8.462469100952148</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.7906123399734497</v>
+        <v>-0.6192646622657776</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.03008975982664</v>
+        <v>2.565014839172318</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.059792947769166</v>
+        <v>-4.19008378982544</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8526946783065815</v>
+        <v>-4.534866142272937</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1081231459975242</v>
+        <v>-1.297935962677002</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0042760567739605</v>
+        <v>-0.3597996234893799</v>
       </c>
       <c r="H15" t="n">
-        <v>1.263422012329102</v>
+        <v>0.7938193678855896</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.929839134216309</v>
+        <v>-0.5449800491333003</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.365105152130127</v>
+        <v>-2.96973985433578</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.33200478553772</v>
+        <v>-1.820678830146782</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1950187236070633</v>
+        <v>-0.845132052898407</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3927863538265228</v>
+        <v>0.3094032406806946</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2987131178379059</v>
+        <v>-0.9367618560791016</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.200880432128908</v>
+        <v>0.4441701889038138</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.761867809295656</v>
+        <v>-1.205912351608273</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7659695267677282</v>
+        <v>-2.574502897262589</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1111774742603302</v>
+        <v>-1.232115149497986</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1542434692382812</v>
+        <v>0.111024759709835</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3286454975605011</v>
+        <v>-0.7185302376747131</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.088931465148925</v>
+        <v>0.6093713760375863</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.697214221954345</v>
+        <v>-1.489246553182612</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6586695432662961</v>
+        <v>-5.765595197677606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7035640478134155</v>
+        <v>-0.2264782935380935</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6233879923820496</v>
+        <v>-0.9043859839439392</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6962336897850037</v>
+        <v>1.454012036323547</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.876247692108153</v>
+        <v>-2.423646736145025</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.620123100280754</v>
+        <v>-3.778019905090329</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.525603616237647</v>
+        <v>-3.443504238128652</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2559525370597839</v>
+        <v>0.5639813542366028</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1485929638147354</v>
+        <v>0.6252205967903137</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1579086631536483</v>
+        <v>-0.7906123399734497</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.824434280395508</v>
+        <v>-3.03008975982664</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.66638998985291</v>
+        <v>-3.059792947769166</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.212135457992547</v>
+        <v>-0.8526946783065815</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0140499006956815</v>
+        <v>-0.1081231459975242</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0019853119738399</v>
+        <v>0.0042760567739605</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0050396383740007</v>
+        <v>1.263422012329102</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.478542327880858</v>
+        <v>1.929839134216309</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.946118712425232</v>
+        <v>-3.365105152130127</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.159464061260225</v>
+        <v>-1.33200478553772</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0995710343122482</v>
+        <v>0.1950187236070633</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0589484944939613</v>
+        <v>-0.3927863538265228</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.2871066629886627</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.185040283203125</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-2.882479858398437</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-1.621251511573792</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0447458773851394</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0714712366461753</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0343611687421798</v>
+        <v>0.2987131178379059</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-37-37/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-37-37/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.809551620483398</v>
+        <v>1.327703475952148</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.747114396095276</v>
+        <v>-2.356002759933471</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.346350741386413</v>
+        <v>-1.412894463539124</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.41813725233078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0224492978304624</v>
+        <v>-0.3617849349975586</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07544185966253281</v>
+        <v>0.7021896243095398</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.535980415344238</v>
+        <v>1.294596195220947</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.904552030563355</v>
+        <v>-2.42879855632782</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.271616220474243</v>
+        <v>-1.538487493991852</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0704022198915481</v>
+        <v>0.2964223623275757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0503963828086853</v>
+        <v>0.0287106670439243</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0980438739061355</v>
+        <v>0.1348485052585601</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.500288486480713</v>
+        <v>1.5967435836792</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.749492883682251</v>
+        <v>-2.721291160583497</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.919559156894683</v>
+        <v>-1.309774732589722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0665843114256858</v>
+        <v>-0.015118914656341</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0959058403968811</v>
+        <v>0.0493273697793483</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0583376325666904</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.063152790069579</v>
+        <v>1.538975667953491</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.663525581359863</v>
+        <v>-3.117227482795715</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.874630331993103</v>
+        <v>-1.760656356811524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0452040284872055</v>
+        <v>-0.0705549344420433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1351539343595504</v>
+        <v>-0.0940732508897781</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1539380401372909</v>
+        <v>-0.0430659987032413</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.008758783340455</v>
+        <v>1.350284004211427</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.917640089988708</v>
+        <v>-3.035107040405273</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.169865667819977</v>
+        <v>-2.307204818725585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2449569702148437</v>
+        <v>0.0039706239476799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4401284158229828</v>
+        <v>0.1137736514210701</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2344195395708084</v>
+        <v>0.0995710343122482</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8518548965454079</v>
+        <v>2.076921081542969</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.11153244972229</v>
+        <v>-3.024871301651001</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.974024677276608</v>
+        <v>-2.036388444900513</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5047274231910706</v>
+        <v>0.0445931628346443</v>
       </c>
       <c r="G7" t="n">
-        <v>1.391398310661316</v>
+        <v>0.0633772686123848</v>
       </c>
       <c r="H7" t="n">
-        <v>1.06214189529419</v>
+        <v>0.0119118718430399</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.7313633918762299</v>
+        <v>2.578349113464355</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.766938614845273</v>
+        <v>-2.735702991485596</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.49925755262375</v>
+        <v>-2.153444766998291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0247400421649217</v>
+        <v>-0.1004873365163803</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4867068827152252</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.290605545043945</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.322844505310054</v>
+        <v>1.809551620483398</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.311514568328858</v>
+        <v>-2.747114396095276</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.98325538635254</v>
+        <v>-2.346350741386413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8316930532455444</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.329548239707947</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3587306141853332</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3075991153717006</v>
+        <v>1.535980415344238</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.543269753456111</v>
+        <v>-2.904552030563355</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.584808015823368</v>
+        <v>-2.271616220474243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7304421067237854</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.097558498382568</v>
+        <v>0.0503963828086853</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8232936263084412</v>
+        <v>-0.0980438739061355</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.671347141265869</v>
+        <v>1.500288486480713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0999624729156494</v>
+        <v>-2.749492883682251</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.535521984100342</v>
+        <v>-1.919559156894683</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2547308206558227</v>
+        <v>0.0665843114256858</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4392121136188507</v>
+        <v>0.0959058403968811</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3918700516223907</v>
+        <v>-0.0583376325666904</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.258466720581057</v>
+        <v>1.063152790069579</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.150174045562746</v>
+        <v>-2.663525581359863</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.508739709854125</v>
+        <v>-1.874630331993103</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.0452040284872055</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.5294674634933472</v>
+        <v>0.1351539343595504</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3912591934204101</v>
+        <v>-0.1539380401372909</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4.284438991546638</v>
+        <v>1.008758783340455</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.87428689002991</v>
+        <v>-2.917640089988708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2990560531616238</v>
+        <v>-2.169865667819977</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.268614411354065</v>
+        <v>0.2449569702148437</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.000597238540649</v>
+        <v>0.4401284158229828</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.631621122360229</v>
+        <v>-0.2344195395708084</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.352084398269707</v>
+        <v>0.8518548965454079</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.846620321273795</v>
+        <v>-3.11153244972229</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.800319671630887</v>
+        <v>-1.974024677276608</v>
       </c>
       <c r="F14" t="n">
-        <v>1.631926536560059</v>
+        <v>0.5047274231910706</v>
       </c>
       <c r="G14" t="n">
-        <v>8.462469100952148</v>
+        <v>1.391398310661316</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6192646622657776</v>
+        <v>1.06214189529419</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.565014839172318</v>
+        <v>-0.7313633918762299</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.19008378982544</v>
+        <v>-2.766938614845273</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.534866142272937</v>
+        <v>-1.49925755262375</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.297935962677002</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3597996234893799</v>
+        <v>-0.4867068827152252</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7938193678855896</v>
+        <v>-1.290605545043945</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5449800491333003</v>
+        <v>-2.322844505310054</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.96973985433578</v>
+        <v>-2.311514568328858</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.820678830146782</v>
+        <v>-1.98325538635254</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.845132052898407</v>
+        <v>0.8316930532455444</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3094032406806946</v>
+        <v>-1.329548239707947</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9367618560791016</v>
+        <v>0.3587306141853332</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4441701889038138</v>
+        <v>0.3075991153717006</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.205912351608273</v>
+        <v>-2.543269753456111</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.574502897262589</v>
+        <v>-2.584808015823368</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.232115149497986</v>
+        <v>0.7304421067237854</v>
       </c>
       <c r="G17" t="n">
-        <v>0.111024759709835</v>
+        <v>-2.097558498382568</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7185302376747131</v>
+        <v>-0.8232936263084412</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6093713760375863</v>
+        <v>-1.671347141265869</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.489246553182612</v>
+        <v>0.0999624729156494</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.765595197677606</v>
+        <v>-4.535521984100342</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2264782935380935</v>
+        <v>0.2547308206558227</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9043859839439392</v>
+        <v>-0.4392121136188507</v>
       </c>
       <c r="H18" t="n">
-        <v>1.454012036323547</v>
+        <v>-0.3918700516223907</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.423646736145025</v>
+        <v>2.258466720581057</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.778019905090329</v>
+        <v>-3.150174045562746</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.443504238128652</v>
+        <v>-2.508739709854125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5639813542366028</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6252205967903137</v>
+        <v>-0.5294674634933472</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.7906123399734497</v>
+        <v>0.3912591934204101</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3.03008975982664</v>
+        <v>-4.284438991546638</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.059792947769166</v>
+        <v>-5.87428689002991</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8526946783065815</v>
+        <v>0.2990560531616238</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1081231459975242</v>
+        <v>-1.268614411354065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0042760567739605</v>
+        <v>-1.000597238540649</v>
       </c>
       <c r="H20" t="n">
-        <v>1.263422012329102</v>
+        <v>-1.631621122360229</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.352084398269707</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.846620321273795</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3.800319671630887</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.631926536560059</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.462469100952148</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.6192646622657776</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.565014839172318</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.19008378982544</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.534866142272937</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.297935962677002</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3597996234893799</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7938193678855896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5449800491333003</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.96973985433578</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.820678830146782</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.845132052898407</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3094032406806946</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.9367618560791016</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4441701889038138</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.205912351608273</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.574502897262589</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.232115149497986</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.111024759709835</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.7185302376747131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6093713760375863</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.489246553182612</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.765595197677606</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2264782935380935</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.9043859839439392</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.454012036323547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.423646736145025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.778019905090329</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.443504238128652</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5639813542366028</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6252205967903137</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.7906123399734497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.03008975982664</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.059792947769166</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.8526946783065815</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1081231459975242</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0042760567739605</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.263422012329102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>1.929839134216309</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>-3.365105152130127</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-1.33200478553772</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>0.1950187236070633</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>-0.3927863538265228</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.2987131178379059</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.200880432128908</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.761867809295656</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.7659695267677282</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1111774742603302</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1542434692382812</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3286454975605011</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.088931465148925</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.697214221954345</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.6586695432662961</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7035640478134155</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.6233879923820496</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6962336897850037</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.876247692108153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.620123100280754</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.525603616237647</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2559525370597839</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1485929638147354</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.1579086631536483</v>
       </c>
     </row>
   </sheetData>
